--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D738338-E9E1-4C3A-ACEE-0CBE73649600}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F792A40B-9710-4439-8F00-9BCF99EDAF0A}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DAE504-AFBB-44E2-A19D-DE248B1C2FE0}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1789,11 +1789,11 @@
         <v>3</v>
       </c>
       <c r="C43" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="21">
         <f>B43-C43</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1810,11 +1810,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="24">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D45" s="21">
         <f>B45-C45</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,12 +1873,11 @@
         <v>1</v>
       </c>
       <c r="C51" s="19">
-        <f>SUM(F52:BE52)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D51" s="22">
         <f>B51-C51</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1895,12 +1894,11 @@
         <v>2</v>
       </c>
       <c r="C53" s="19">
-        <f>SUM(F54:BE54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="22">
         <f>B53-C53</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1984,11 +1982,11 @@
       </c>
       <c r="C61" s="24">
         <f>SUM(C51:C60)</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D61" s="21">
         <f t="shared" ref="D61" si="12">B61-C61</f>
-        <v>24.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2131,11 +2129,11 @@
       </c>
       <c r="C75" s="24">
         <f>SUM(C39:C48)</f>
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="D75" s="21">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>71</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2277,23 +2275,15 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C75,C87)</f>
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>82</v>
+        <v>83.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
@@ -2307,16 +2297,20 @@
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
@@ -2331,6 +2325,10 @@
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="A15:A16"/>

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F792A40B-9710-4439-8F00-9BCF99EDAF0A}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B28342-7FDD-4B3F-809A-7531191E45BF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
+    <workbookView xWindow="-28800" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DAE504-AFBB-44E2-A19D-DE248B1C2FE0}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1689,11 +1689,11 @@
         <v>2</v>
       </c>
       <c r="C33" s="24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D33" s="21">
         <f t="shared" ref="D33" si="10">B33-C33</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="C35" s="24">
         <f>SUM(C27:C34)</f>
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="D35" s="21">
         <f t="shared" ref="D35" si="11">B35-C35</f>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1810,11 +1810,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="21">
         <f>B45-C45</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,11 +1873,11 @@
         <v>1</v>
       </c>
       <c r="C51" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D51" s="22">
         <f>B51-C51</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1936,12 +1936,11 @@
         <v>4</v>
       </c>
       <c r="C57" s="19">
-        <f>SUM(F58:BE58)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D57" s="22">
         <f>B57-C57</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1958,12 +1957,11 @@
         <v>5</v>
       </c>
       <c r="C59" s="19">
-        <f>SUM(F62:BE62)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D59" s="22">
         <f>B59-C59</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,11 +1980,11 @@
       </c>
       <c r="C61" s="24">
         <f>SUM(C51:C60)</f>
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="D61" s="21">
         <f t="shared" ref="D61" si="12">B61-C61</f>
-        <v>23</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2129,11 +2127,11 @@
       </c>
       <c r="C75" s="24">
         <f>SUM(C39:C48)</f>
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D75" s="21">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>72.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,6 +2282,15 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
@@ -2300,17 +2307,6 @@
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
@@ -2329,6 +2325,8 @@
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="A15:A16"/>

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B28342-7FDD-4B3F-809A-7531191E45BF}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D92D69B-1AAD-4585-98F0-25A5F77B02B0}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -383,28 +383,10 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,26 +407,44 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DAE504-AFBB-44E2-A19D-DE248B1C2FE0}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,24 +1366,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1400,933 +1400,973 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <f t="shared" ref="D7:D11" si="0">B7-C7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="18">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="18">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>4</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="18">
         <v>3</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <f t="shared" ref="D13" si="1">B13-C13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="11">
         <v>1</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <f t="shared" ref="D15" si="2">B15-C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="11">
         <v>2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="18">
         <v>2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <f t="shared" ref="D17" si="3">B17-C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <f t="shared" ref="D19" si="4">B19-C19</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="11">
         <v>1</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="18">
         <v>2</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <f t="shared" ref="D21" si="5">B21-C21</f>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="11">
         <f>SUM(B7:B22)</f>
         <v>17</v>
       </c>
-      <c r="C23" s="24">
-        <f>SUM(C7:C18)</f>
-        <v>11</v>
-      </c>
-      <c r="D23" s="21">
+      <c r="C23" s="18">
+        <f>SUM(C7:C22)</f>
+        <v>15</v>
+      </c>
+      <c r="D23" s="19">
         <f t="shared" ref="D23" si="6">B23-C23</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="17">
         <v>2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="18">
         <v>2.5</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <f t="shared" ref="D27" si="7">B27-C27</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="17">
         <v>2</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="18">
         <v>1.5</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <f t="shared" ref="D29" si="8">B29-C29</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="17">
         <v>4</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="18">
         <v>5</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="19">
         <f t="shared" ref="D31" si="9">B31-C31</f>
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="17">
         <v>2</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="18">
         <v>1.5</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <f t="shared" ref="D33" si="10">B33-C33</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="17">
         <f>SUM(B27:B34)</f>
         <v>10</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="18">
         <f>SUM(C27:C34)</f>
         <v>10.5</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <f t="shared" ref="D35" si="11">B35-C35</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="17">
         <v>1</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="18">
         <v>1</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <f>B39-C39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="17">
         <v>1</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="18">
         <v>1</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="19">
         <f>B41-C41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="17">
         <v>3</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="18">
         <v>4</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="19">
         <f>B43-C43</f>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="17">
         <v>4</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="18">
         <v>4</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="19">
         <f>B45-C45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="11">
         <v>1</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="13">
         <v>1</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="7">
         <f>B47-C47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="13">
         <v>2</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="7">
         <f>B49-C49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="11">
         <v>1</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="13">
         <v>1</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="7">
         <f>B51-C51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="23"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="11">
         <v>2</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="13">
         <v>1</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="7">
         <f>B53-C53</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="11">
         <v>1</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="13">
         <v>0.5</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="7">
         <f>B55-C55</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="11">
         <v>4</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="13">
         <v>3</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="7">
         <f>B57-C57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="11">
         <v>5</v>
       </c>
-      <c r="C59" s="19">
-        <v>3</v>
-      </c>
-      <c r="D59" s="22">
+      <c r="C59" s="13">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7">
         <f>B59-C59</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="A60" s="10"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="17">
         <f>SUM(B39:B60)</f>
         <v>25</v>
       </c>
-      <c r="C61" s="24">
-        <f>SUM(C51:C60)</f>
-        <v>8.5</v>
-      </c>
-      <c r="D61" s="21">
+      <c r="C61" s="18">
+        <f>SUM(C39:C60)</f>
+        <v>22.5</v>
+      </c>
+      <c r="D61" s="19">
         <f t="shared" ref="D61" si="12">B61-C61</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="21"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="11">
         <v>8</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="13">
         <f>SUM(F66:BE66)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="7">
         <f>B65-C65</f>
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="11">
         <v>20</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="13">
         <f>SUM(F68:BE68)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="7">
         <f>B67-C67</f>
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="23"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="11">
         <v>30</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="13">
         <f>SUM(F70:BE70)</f>
         <v>0</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="7">
         <f>B69-C69</f>
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="11">
         <v>10</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="13">
         <f>SUM(F72:BE72)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="7">
         <f>B71-C71</f>
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="11">
         <v>15</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="13">
         <f>SUM(F74:BE74)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="7">
         <f>B73-C73</f>
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="17">
         <f>SUM(B65:B74)</f>
         <v>83</v>
       </c>
-      <c r="C75" s="24">
-        <f>SUM(C39:C48)</f>
-        <v>11</v>
-      </c>
-      <c r="D75" s="21">
+      <c r="C75" s="18">
+        <f>SUM(C65:C74)</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="19">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="27"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="21"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="25">
+      <c r="B79" s="17">
         <v>4</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="18">
         <v>4</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="19">
         <f t="shared" ref="D79" si="14">B79-C79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="21"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="25">
+      <c r="B81" s="17">
         <v>1</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="18">
         <v>1</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="19">
         <f t="shared" ref="D81" si="15">B81-C81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="21"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="25">
+      <c r="B83" s="17">
         <v>2</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="18">
         <f>SUM(F84:AR84)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="19">
         <f t="shared" ref="D83" si="16">B83-C83</f>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="21"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="25">
+      <c r="B85" s="17">
         <v>4</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="18">
         <f>SUM(F86:AR86)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="19">
         <f t="shared" ref="D85" si="17">B85-C85</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="21"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="17">
         <f>SUM(B79:B86)</f>
         <v>11</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="18">
         <f>SUM(C79:C86)</f>
         <v>5</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="19">
         <f t="shared" ref="D87" si="18">B87-C87</f>
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="21"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B89" s="4">
-        <f>SUM(B23,B35,B75,B87)</f>
-        <v>121</v>
+        <f>SUM(B23,B35,B61,B75,B87)</f>
+        <v>146</v>
       </c>
       <c r="C89" s="5">
-        <f>SUM(C23,C35,C75,C87)</f>
-        <v>37.5</v>
+        <f>SUM(C23,C35,C61,C75,C87)</f>
+        <v>53</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>83.5</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="A15:A16"/>
@@ -2351,91 +2391,51 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="D89">
     <cfRule type="cellIs" dxfId="58" priority="64" operator="greaterThan">

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D92D69B-1AAD-4585-98F0-25A5F77B02B0}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59B341C-001E-4DA2-A940-613D8350D5A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -383,10 +383,28 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -407,44 +425,26 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DAE504-AFBB-44E2-A19D-DE248B1C2FE0}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,24 +1366,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1400,868 +1400,867 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="19">
         <v>3</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="21">
         <f t="shared" ref="D7:D11" si="0">B7-C7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="24">
         <v>1</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="17">
         <v>4</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="24">
         <v>3</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="21">
         <f t="shared" ref="D13" si="1">B13-C13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="24">
         <v>1</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="21">
         <f t="shared" ref="D15" si="2">B15-C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="24">
         <v>2</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="21">
         <f t="shared" ref="D17" si="3">B17-C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="21">
         <f t="shared" ref="D19" si="4">B19-C19</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="17">
         <v>1</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="24">
         <v>2</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="21">
         <f t="shared" ref="D21" si="5">B21-C21</f>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="17">
         <f>SUM(B7:B22)</f>
         <v>17</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="24">
         <f>SUM(C7:C22)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="21">
         <f t="shared" ref="D23" si="6">B23-C23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="25">
         <v>2</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="24">
         <v>2.5</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="21">
         <f t="shared" ref="D27" si="7">B27-C27</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="25">
         <v>2</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="24">
         <v>1.5</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="21">
         <f t="shared" ref="D29" si="8">B29-C29</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="25">
         <v>4</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="24">
         <v>5</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="21">
         <f t="shared" ref="D31" si="9">B31-C31</f>
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="25">
         <v>2</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="24">
         <v>1.5</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="21">
         <f t="shared" ref="D33" si="10">B33-C33</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="25">
         <f>SUM(B27:B34)</f>
         <v>10</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="24">
         <f>SUM(C27:C34)</f>
         <v>10.5</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="21">
         <f t="shared" ref="D35" si="11">B35-C35</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="25">
         <v>1</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="24">
         <v>1</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="21">
         <f>B39-C39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="25">
         <v>1</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="24">
         <v>1</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="21">
         <f>B41-C41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="25">
         <v>3</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="24">
         <v>4</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="21">
         <f>B43-C43</f>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="25">
         <v>4</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="24">
         <v>4</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="21">
         <f>B45-C45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="17">
         <v>1</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="19">
         <v>1</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="22">
         <f>B47-C47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="8"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="17">
         <v>2</v>
       </c>
-      <c r="C49" s="13">
-        <v>2</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="C49" s="19">
+        <v>3</v>
+      </c>
+      <c r="D49" s="22">
         <f>B49-C49</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="8"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="17">
         <v>1</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="19">
         <v>1</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="22">
         <f>B51-C51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="8"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="17">
         <v>2</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="D53" s="22">
+        <f>B53-C53</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="23"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="17">
         <v>1</v>
       </c>
-      <c r="D53" s="7">
-        <f>B53-C53</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1</v>
-      </c>
-      <c r="C55" s="13">
+      <c r="C55" s="19">
         <v>0.5</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="22">
         <f>B55-C55</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="8"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="17">
         <v>4</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="19">
         <v>3</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="22">
         <f>B57-C57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="8"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="17">
         <v>5</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="19">
         <v>4</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="22">
         <f>B59-C59</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="25">
         <f>SUM(B39:B60)</f>
         <v>25</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="24">
         <f>SUM(C39:C60)</f>
-        <v>22.5</v>
-      </c>
-      <c r="D61" s="19">
+        <v>25</v>
+      </c>
+      <c r="D61" s="21">
         <f t="shared" ref="D61" si="12">B61-C61</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="17">
         <v>8</v>
       </c>
-      <c r="C65" s="13">
-        <f>SUM(F66:BE66)</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="C65" s="19">
+        <v>7</v>
+      </c>
+      <c r="D65" s="22">
         <f>B65-C65</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="8"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="17">
         <v>20</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="19">
         <f>SUM(F68:BE68)</f>
         <v>0</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="22">
         <f>B67-C67</f>
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="8"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="17">
         <v>30</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="19">
         <f>SUM(F70:BE70)</f>
         <v>0</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="22">
         <f>B69-C69</f>
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="8"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="17">
         <v>10</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="19">
         <f>SUM(F72:BE72)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="22">
         <f>B71-C71</f>
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="8"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="17">
         <v>15</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="19">
         <f>SUM(F74:BE74)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="22">
         <f>B73-C73</f>
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="8"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="25">
         <f>SUM(B65:B74)</f>
         <v>83</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="24">
         <f>SUM(C65:C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="19">
+        <v>7</v>
+      </c>
+      <c r="D75" s="21">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="22"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="25">
         <v>4</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="24">
         <v>4</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="21">
         <f t="shared" ref="D79" si="14">B79-C79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="25">
         <v>1</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="24">
         <v>1</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="21">
         <f t="shared" ref="D81" si="15">B81-C81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B83" s="25">
         <v>2</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="24">
         <f>SUM(F84:AR84)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="21">
         <f t="shared" ref="D83" si="16">B83-C83</f>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B85" s="25">
         <v>4</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="24">
         <f>SUM(F86:AR86)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="21">
         <f t="shared" ref="D85" si="17">B85-C85</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="25">
         <f>SUM(B79:B86)</f>
         <v>11</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="24">
         <f>SUM(C79:C86)</f>
         <v>5</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="21">
         <f t="shared" ref="D87" si="18">B87-C87</f>
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="16"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -2273,15 +2272,145 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>53</v>
+        <v>62.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>93</v>
+        <v>83.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="A7:A8"/>
@@ -2306,136 +2435,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="D89">
     <cfRule type="cellIs" dxfId="58" priority="64" operator="greaterThan">

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59B341C-001E-4DA2-A940-613D8350D5A9}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F811CC4-3099-43E2-8938-42E8C930AAC5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C52"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2058,12 +2058,11 @@
         <v>30</v>
       </c>
       <c r="C69" s="19">
-        <f>SUM(F70:BE70)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D69" s="22">
         <f>B69-C69</f>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2126,11 +2125,11 @@
       </c>
       <c r="C75" s="24">
         <f>SUM(C65:C74)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D75" s="21">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2272,18 +2271,15 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>62.5</v>
+        <v>68.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>83.5</v>
+        <v>77.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
@@ -2326,6 +2322,9 @@
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="A15:A16"/>

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F811CC4-3099-43E2-8938-42E8C930AAC5}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE52C7CF-16C8-42A5-B780-BAA467D94739}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2036,12 +2036,11 @@
         <v>20</v>
       </c>
       <c r="C67" s="19">
-        <f>SUM(F68:BE68)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D67" s="22">
         <f>B67-C67</f>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2058,11 +2057,11 @@
         <v>30</v>
       </c>
       <c r="C69" s="19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D69" s="22">
         <f>B69-C69</f>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2125,11 +2124,11 @@
       </c>
       <c r="C75" s="24">
         <f>SUM(C65:C74)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D75" s="21">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2271,11 +2270,11 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>68.5</v>
+        <v>78.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>77.5</v>
+        <v>67.5</v>
       </c>
     </row>
   </sheetData>
@@ -2302,12 +2301,8 @@
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="D57:D58"/>
@@ -2322,9 +2317,6 @@
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="A15:A16"/>
@@ -2348,7 +2340,6 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:C86"/>
@@ -2365,13 +2356,6 @@
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="D83:D84"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
     <mergeCell ref="C79:C80"/>
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="A45:A46"/>
@@ -2382,6 +2366,20 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
@@ -2410,6 +2408,7 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="A7:A8"/>

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE52C7CF-16C8-42A5-B780-BAA467D94739}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B302BE10-799C-42CC-BC29-4AC8DA36685D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Reviews</t>
   </si>
   <si>
-    <t>Kurzfassung schreiben</t>
-  </si>
-  <si>
     <t>Finale Korrektur</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Präsentation erstellen</t>
   </si>
 </sst>
 </file>
@@ -383,28 +383,7 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,19 +404,28 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,6 +433,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DAE504-AFBB-44E2-A19D-DE248B1C2FE0}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,24 +1366,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1400,869 +1400,867 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="7">
         <f t="shared" ref="D7:D11" si="0">B7-C7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="25">
         <v>3</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="7">
         <f t="shared" ref="D13" si="1">B13-C13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>1</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="7">
         <f t="shared" ref="D15" si="2">B15-C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="17">
+      <c r="A17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10">
         <v>2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="25">
         <v>2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="7">
         <f t="shared" ref="D17" si="3">B17-C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="25">
         <v>2</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="7">
         <f t="shared" ref="D19" si="4">B19-C19</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="17">
+      <c r="A21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="10">
         <v>1</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="7">
         <f t="shared" ref="D21" si="5">B21-C21</f>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="10">
         <f>SUM(B7:B22)</f>
         <v>17</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="25">
         <f>SUM(C7:C22)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="7">
         <f t="shared" ref="D23" si="6">B23-C23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="25">
         <v>2.5</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="7">
         <f t="shared" ref="D27" si="7">B27-C27</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="25">
+      <c r="A29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="24">
         <v>2</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="25">
         <v>1.5</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="7">
         <f t="shared" ref="D29" si="8">B29-C29</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="25">
+      <c r="A31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="24">
         <v>4</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="25">
         <v>5</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="7">
         <f t="shared" ref="D31" si="9">B31-C31</f>
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>2</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="25">
         <v>1.5</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="7">
         <f t="shared" ref="D33" si="10">B33-C33</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <f>SUM(B27:B34)</f>
         <v>10</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="25">
         <f>SUM(C27:C34)</f>
         <v>10.5</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="7">
         <f t="shared" ref="D35" si="11">B35-C35</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="25">
+      <c r="A39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="24">
         <v>1</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="25">
         <v>1</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="7">
         <f>B39-C39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="25">
+      <c r="A41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="24">
         <v>1</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="25">
         <v>1</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="7">
         <f>B41-C41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="25">
+      <c r="A43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="24">
         <v>3</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="25">
         <v>4</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="7">
         <f>B43-C43</f>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="25">
+      <c r="A45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="24">
         <v>4</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="25">
         <v>4</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="7">
         <f>B45-C45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="17">
+      <c r="A47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="10">
         <v>1</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="12">
         <v>1</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="14">
         <f>B47-C47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="17">
+      <c r="A49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="10">
         <v>2</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="12">
         <v>3</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="14">
         <f>B49-C49</f>
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="17">
+      <c r="A51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="10">
         <v>1</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="12">
         <v>1</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="14">
         <f>B51-C51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="23"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="17">
+      <c r="A53" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="10">
         <v>2</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="12">
         <v>2.5</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="14">
         <f>B53-C53</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="10">
         <v>1</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="12">
         <v>0.5</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="14">
         <f>B55-C55</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="17">
+      <c r="A57" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="10">
         <v>4</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="12">
         <v>3</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="14">
         <f>B57-C57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="17">
+      <c r="A59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="10">
         <v>5</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="12">
         <v>4</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="14">
         <f>B59-C59</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="24">
         <f>SUM(B39:B60)</f>
         <v>25</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="25">
         <f>SUM(C39:C60)</f>
         <v>25</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="7">
         <f t="shared" ref="D61" si="12">B61-C61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="21"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="10">
         <v>8</v>
       </c>
-      <c r="C65" s="19">
-        <v>7</v>
-      </c>
-      <c r="D65" s="22">
+      <c r="C65" s="12">
+        <v>8</v>
+      </c>
+      <c r="D65" s="14">
         <f>B65-C65</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="10">
         <v>20</v>
       </c>
-      <c r="C67" s="19">
-        <v>4</v>
-      </c>
-      <c r="D67" s="22">
+      <c r="C67" s="12">
+        <v>8</v>
+      </c>
+      <c r="D67" s="14">
         <f>B67-C67</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="23"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="17">
+      <c r="B69" s="10">
         <v>30</v>
       </c>
-      <c r="C69" s="19">
-        <v>12</v>
-      </c>
-      <c r="D69" s="22">
+      <c r="C69" s="12">
+        <v>15</v>
+      </c>
+      <c r="D69" s="14">
         <f>B69-C69</f>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="15"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="17">
+      <c r="A71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="10">
         <v>10</v>
       </c>
-      <c r="C71" s="19">
-        <f>SUM(F72:BE72)</f>
+      <c r="C71" s="12">
         <v>0</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="14">
         <f>B71-C71</f>
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="10">
         <v>15</v>
       </c>
-      <c r="C73" s="19">
-        <f>SUM(F74:BE74)</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="22">
+      <c r="C73" s="12">
+        <v>1</v>
+      </c>
+      <c r="D73" s="14">
         <f>B73-C73</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="24">
         <f>SUM(B65:B74)</f>
         <v>83</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="25">
         <f>SUM(C65:C74)</f>
-        <v>23</v>
-      </c>
-      <c r="D75" s="21">
+        <v>32</v>
+      </c>
+      <c r="D75" s="7">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="27"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="21"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="25">
+      <c r="B79" s="24">
         <v>4</v>
       </c>
-      <c r="C79" s="24">
-        <v>4</v>
-      </c>
-      <c r="D79" s="21">
+      <c r="C79" s="25">
+        <v>2</v>
+      </c>
+      <c r="D79" s="7">
         <f t="shared" ref="D79" si="14">B79-C79</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="21"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="25">
+      <c r="B81" s="24">
         <v>1</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="25">
         <v>1</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="7">
         <f t="shared" ref="D81" si="15">B81-C81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="21"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="25">
+      <c r="A83" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="24">
         <v>2</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="25">
         <f>SUM(F84:AR84)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="7">
         <f t="shared" ref="D83" si="16">B83-C83</f>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="21"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="25">
+      <c r="A85" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="24">
         <v>4</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="25">
         <f>SUM(F86:AR86)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="7">
         <f t="shared" ref="D85" si="17">B85-C85</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="21"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="24">
         <f>SUM(B79:B86)</f>
         <v>11</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="25">
         <f>SUM(C79:C86)</f>
-        <v>5</v>
-      </c>
-      <c r="D87" s="21">
+        <v>3</v>
+      </c>
+      <c r="D87" s="7">
         <f t="shared" ref="D87" si="18">B87-C87</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="21"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="4">
         <f>SUM(B23,B35,B61,B75,B87)</f>
@@ -2270,15 +2268,145 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>78.5</v>
+        <v>85.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>67.5</v>
+        <v>60.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
@@ -2303,136 +2431,6 @@
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="D89">
     <cfRule type="cellIs" dxfId="58" priority="64" operator="greaterThan">

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B302BE10-799C-42CC-BC29-4AC8DA36685D}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BAD612-CE2F-4495-BC79-24861F233CBD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -383,7 +383,28 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,28 +425,19 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,18 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DAE504-AFBB-44E2-A19D-DE248B1C2FE0}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,24 +1366,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1400,863 +1400,863 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="19">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="21">
         <f t="shared" ref="D7:D11" si="0">B7-C7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="17">
         <v>4</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="21">
         <f t="shared" ref="D13" si="1">B13-C13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="21">
         <f t="shared" ref="D15" si="2">B15-C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="21">
         <f t="shared" ref="D17" si="3">B17-C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="21">
         <f t="shared" ref="D19" si="4">B19-C19</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="17">
         <v>1</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="21">
         <f t="shared" ref="D21" si="5">B21-C21</f>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="17">
         <f>SUM(B7:B22)</f>
         <v>17</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <f>SUM(C7:C22)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="21">
         <f t="shared" ref="D23" si="6">B23-C23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="25">
         <v>2</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>2.5</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="21">
         <f t="shared" ref="D27" si="7">B27-C27</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="25">
         <v>2</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>1.5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="21">
         <f t="shared" ref="D29" si="8">B29-C29</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="25">
         <v>4</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="21">
         <f t="shared" ref="D31" si="9">B31-C31</f>
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="25">
         <v>2</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>1.5</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="21">
         <f t="shared" ref="D33" si="10">B33-C33</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="25">
         <f>SUM(B27:B34)</f>
         <v>10</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="24">
         <f>SUM(C27:C34)</f>
         <v>10.5</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="21">
         <f t="shared" ref="D35" si="11">B35-C35</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="25">
         <v>1</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="24">
         <v>1</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="21">
         <f>B39-C39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="25">
         <v>1</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="24">
         <v>1</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="21">
         <f>B41-C41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="25">
         <v>3</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="24">
         <v>4</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="21">
         <f>B43-C43</f>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="25">
         <v>4</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <v>4</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="21">
         <f>B45-C45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="17">
         <v>1</v>
       </c>
-      <c r="C47" s="12">
-        <v>1</v>
-      </c>
-      <c r="D47" s="14">
+      <c r="C47" s="19">
+        <v>4</v>
+      </c>
+      <c r="D47" s="22">
         <f>B47-C47</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="17">
         <v>2</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="19">
         <v>3</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="22">
         <f>B49-C49</f>
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="17">
         <v>1</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="19">
         <v>1</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="22">
         <f>B51-C51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="15"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="17">
         <v>2</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="19">
         <v>2.5</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="22">
         <f>B53-C53</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="15"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="17">
         <v>1</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="19">
         <v>0.5</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="22">
         <f>B55-C55</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="17">
         <v>4</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="19">
         <v>3</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="22">
         <f>B57-C57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="15"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="17">
         <v>5</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="19">
         <v>4</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="22">
         <f>B59-C59</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="15"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="25">
         <f>SUM(B39:B60)</f>
         <v>25</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="24">
         <f>SUM(C39:C60)</f>
-        <v>25</v>
-      </c>
-      <c r="D61" s="7">
+        <v>28</v>
+      </c>
+      <c r="D61" s="21">
         <f t="shared" ref="D61" si="12">B61-C61</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="7"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="17">
         <v>8</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="19">
         <v>8</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="22">
         <f>B65-C65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="15"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="17">
         <v>20</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="19">
         <v>8</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="22">
         <f>B67-C67</f>
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="15"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="17">
         <v>30</v>
       </c>
-      <c r="C69" s="12">
-        <v>15</v>
-      </c>
-      <c r="D69" s="14">
+      <c r="C69" s="19">
+        <v>17</v>
+      </c>
+      <c r="D69" s="22">
         <f>B69-C69</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="15"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="17">
         <v>10</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="19">
         <v>0</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="22">
         <f>B71-C71</f>
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="15"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="17">
         <v>15</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="19">
         <v>1</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="22">
         <f>B73-C73</f>
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="15"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="24">
+      <c r="B75" s="25">
         <f>SUM(B65:B74)</f>
         <v>83</v>
       </c>
-      <c r="C75" s="25">
+      <c r="C75" s="24">
         <f>SUM(C65:C74)</f>
-        <v>32</v>
-      </c>
-      <c r="D75" s="7">
+        <v>34</v>
+      </c>
+      <c r="D75" s="21">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="7"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B79" s="25">
         <v>4</v>
       </c>
-      <c r="C79" s="25">
+      <c r="C79" s="24">
         <v>2</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="21">
         <f t="shared" ref="D79" si="14">B79-C79</f>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="24">
+      <c r="B81" s="25">
         <v>1</v>
       </c>
-      <c r="C81" s="25">
+      <c r="C81" s="24">
         <v>1</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="21">
         <f t="shared" ref="D81" si="15">B81-C81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="7"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B83" s="25">
         <v>2</v>
       </c>
-      <c r="C83" s="25">
+      <c r="C83" s="24">
         <f>SUM(F84:AR84)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="21">
         <f t="shared" ref="D83" si="16">B83-C83</f>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="7"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="24">
+      <c r="B85" s="25">
         <v>4</v>
       </c>
-      <c r="C85" s="25">
+      <c r="C85" s="24">
         <f>SUM(F86:AR86)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="21">
         <f t="shared" ref="D85" si="17">B85-C85</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="7"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="24">
+      <c r="B87" s="25">
         <f>SUM(B79:B86)</f>
         <v>11</v>
       </c>
-      <c r="C87" s="25">
+      <c r="C87" s="24">
         <f>SUM(C79:C86)</f>
         <v>3</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="21">
         <f t="shared" ref="D87" si="18">B87-C87</f>
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="7"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -2268,15 +2268,145 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>85.5</v>
+        <v>90.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>60.5</v>
+        <v>55.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="A7:A8"/>
@@ -2301,136 +2431,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <conditionalFormatting sqref="D89">
     <cfRule type="cellIs" dxfId="58" priority="64" operator="greaterThan">

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BAD612-CE2F-4495-BC79-24861F233CBD}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9386635C-8F7A-4808-AA88-E29DE64F0758}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -383,28 +383,7 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,19 +404,28 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,6 +433,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:C70"/>
+      <selection activeCell="C73" sqref="C73:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,24 +1366,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1400,863 +1400,863 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="7">
         <f t="shared" ref="D7:D11" si="0">B7-C7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="25">
         <v>3</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="7">
         <f t="shared" ref="D13" si="1">B13-C13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>1</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="7">
         <f t="shared" ref="D15" si="2">B15-C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="10">
         <v>2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="25">
         <v>2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="7">
         <f t="shared" ref="D17" si="3">B17-C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="25">
         <v>2</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="7">
         <f t="shared" ref="D19" si="4">B19-C19</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="10">
         <v>1</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="7">
         <f t="shared" ref="D21" si="5">B21-C21</f>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="10">
         <f>SUM(B7:B22)</f>
         <v>17</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="25">
         <f>SUM(C7:C22)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="7">
         <f t="shared" ref="D23" si="6">B23-C23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="25">
         <v>2.5</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="7">
         <f t="shared" ref="D27" si="7">B27-C27</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>2</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="25">
         <v>1.5</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="7">
         <f t="shared" ref="D29" si="8">B29-C29</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>4</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="25">
         <v>5</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="7">
         <f t="shared" ref="D31" si="9">B31-C31</f>
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>2</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="25">
         <v>1.5</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="7">
         <f t="shared" ref="D33" si="10">B33-C33</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <f>SUM(B27:B34)</f>
         <v>10</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="25">
         <f>SUM(C27:C34)</f>
         <v>10.5</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="7">
         <f t="shared" ref="D35" si="11">B35-C35</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="24">
         <v>1</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="25">
         <v>1</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="7">
         <f>B39-C39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <v>1</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="25">
         <v>1</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="7">
         <f>B41-C41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="24">
         <v>3</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="25">
         <v>4</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="7">
         <f>B43-C43</f>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="24">
         <v>4</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="25">
         <v>4</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="7">
         <f>B45-C45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="10">
         <v>1</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="12">
         <v>4</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="14">
         <f>B47-C47</f>
         <v>-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="10">
         <v>2</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="12">
         <v>3</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="14">
         <f>B49-C49</f>
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="10">
         <v>1</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="12">
         <v>1</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="14">
         <f>B51-C51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="23"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="10">
         <v>2</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="12">
         <v>2.5</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="14">
         <f>B53-C53</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="10">
         <v>1</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="12">
         <v>0.5</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="14">
         <f>B55-C55</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="10">
         <v>4</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="12">
         <v>3</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="14">
         <f>B57-C57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="10">
         <v>5</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="12">
         <v>4</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="14">
         <f>B59-C59</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="24">
         <f>SUM(B39:B60)</f>
         <v>25</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="25">
         <f>SUM(C39:C60)</f>
         <v>28</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="7">
         <f t="shared" ref="D61" si="12">B61-C61</f>
         <v>-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="21"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="10">
         <v>8</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="12">
         <v>8</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="14">
         <f>B65-C65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="10">
         <v>20</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="12">
         <v>8</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="14">
         <f>B67-C67</f>
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="23"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="15"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="10">
         <v>30</v>
       </c>
-      <c r="C69" s="19">
-        <v>17</v>
-      </c>
-      <c r="D69" s="22">
+      <c r="C69" s="12">
+        <v>20</v>
+      </c>
+      <c r="D69" s="14">
         <f>B69-C69</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="15"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="10">
         <v>10</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="12">
         <v>0</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="14">
         <f>B71-C71</f>
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="10">
         <v>15</v>
       </c>
-      <c r="C73" s="19">
-        <v>1</v>
-      </c>
-      <c r="D73" s="22">
+      <c r="C73" s="12">
+        <v>3</v>
+      </c>
+      <c r="D73" s="14">
         <f>B73-C73</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="24">
         <f>SUM(B65:B74)</f>
         <v>83</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="25">
         <f>SUM(C65:C74)</f>
-        <v>34</v>
-      </c>
-      <c r="D75" s="21">
+        <v>39</v>
+      </c>
+      <c r="D75" s="7">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="27"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="21"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="25">
+      <c r="B79" s="24">
         <v>4</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="25">
         <v>2</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="7">
         <f t="shared" ref="D79" si="14">B79-C79</f>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="21"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="25">
+      <c r="B81" s="24">
         <v>1</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="25">
         <v>1</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="7">
         <f t="shared" ref="D81" si="15">B81-C81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="21"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="25">
+      <c r="B83" s="24">
         <v>2</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="25">
         <f>SUM(F84:AR84)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="7">
         <f t="shared" ref="D83" si="16">B83-C83</f>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="21"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="25">
+      <c r="B85" s="24">
         <v>4</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="25">
         <f>SUM(F86:AR86)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="7">
         <f t="shared" ref="D85" si="17">B85-C85</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="21"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="24">
         <f>SUM(B79:B86)</f>
         <v>11</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="25">
         <f>SUM(C79:C86)</f>
         <v>3</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="7">
         <f t="shared" ref="D87" si="18">B87-C87</f>
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="21"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -2268,15 +2268,145 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>90.5</v>
+        <v>95.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>55.5</v>
+        <v>50.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
@@ -2301,136 +2431,6 @@
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="D89">
     <cfRule type="cellIs" dxfId="58" priority="64" operator="greaterThan">

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9386635C-8F7A-4808-AA88-E29DE64F0758}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E350949-6BBA-43A2-8909-FB116B76CAFF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73:C74"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2036,11 +2036,11 @@
         <v>20</v>
       </c>
       <c r="C67" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D67" s="14">
         <f>B67-C67</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,11 +2057,11 @@
         <v>30</v>
       </c>
       <c r="C69" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D69" s="14">
         <f>B69-C69</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2099,11 +2099,11 @@
         <v>15</v>
       </c>
       <c r="C73" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" s="14">
         <f>B73-C73</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C75" s="25">
         <f>SUM(C65:C74)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>95.5</v>
+        <v>101.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>50.5</v>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E350949-6BBA-43A2-8909-FB116B76CAFF}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7306607-DEEF-4971-9D50-56189D1EBCB2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="C69" sqref="C69:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2036,11 +2036,11 @@
         <v>20</v>
       </c>
       <c r="C67" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" s="14">
         <f>B67-C67</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,11 +2057,11 @@
         <v>30</v>
       </c>
       <c r="C69" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D69" s="14">
         <f>B69-C69</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2078,11 +2078,11 @@
         <v>10</v>
       </c>
       <c r="C71" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="14">
         <f>B71-C71</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C75" s="25">
         <f>SUM(C65:C74)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>101.5</v>
+        <v>104.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>44.5</v>
+        <v>41.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7306607-DEEF-4971-9D50-56189D1EBCB2}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C22580BF-A385-4B3F-B7C1-17E6736DC926}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -383,7 +383,28 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,28 +425,19 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,18 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DAE504-AFBB-44E2-A19D-DE248B1C2FE0}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:C70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,24 +1366,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1400,863 +1400,863 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="19">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="21">
         <f t="shared" ref="D7:D11" si="0">B7-C7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="17">
         <v>4</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="21">
         <f t="shared" ref="D13" si="1">B13-C13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="21">
         <f t="shared" ref="D15" si="2">B15-C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="21">
         <f t="shared" ref="D17" si="3">B17-C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="21">
         <f t="shared" ref="D19" si="4">B19-C19</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="17">
         <v>1</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="21">
         <f t="shared" ref="D21" si="5">B21-C21</f>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="17">
         <f>SUM(B7:B22)</f>
         <v>17</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <f>SUM(C7:C22)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="21">
         <f t="shared" ref="D23" si="6">B23-C23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="25">
         <v>2</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>2.5</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="21">
         <f t="shared" ref="D27" si="7">B27-C27</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="25">
         <v>2</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>1.5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="21">
         <f t="shared" ref="D29" si="8">B29-C29</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="25">
         <v>4</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="21">
         <f t="shared" ref="D31" si="9">B31-C31</f>
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="25">
         <v>2</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>1.5</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="21">
         <f t="shared" ref="D33" si="10">B33-C33</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="25">
         <f>SUM(B27:B34)</f>
         <v>10</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="24">
         <f>SUM(C27:C34)</f>
         <v>10.5</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="21">
         <f t="shared" ref="D35" si="11">B35-C35</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="25">
         <v>1</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="24">
         <v>1</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="21">
         <f>B39-C39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="25">
         <v>1</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="24">
         <v>1</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="21">
         <f>B41-C41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="25">
         <v>3</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="24">
         <v>4</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="21">
         <f>B43-C43</f>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="25">
         <v>4</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <v>4</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="21">
         <f>B45-C45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="17">
         <v>1</v>
       </c>
-      <c r="C47" s="12">
-        <v>4</v>
-      </c>
-      <c r="D47" s="14">
+      <c r="C47" s="19">
+        <v>5</v>
+      </c>
+      <c r="D47" s="22">
         <f>B47-C47</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="17">
         <v>2</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="19">
         <v>3</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="22">
         <f>B49-C49</f>
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="17">
         <v>1</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="19">
         <v>1</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="22">
         <f>B51-C51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="15"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="17">
         <v>2</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="19">
         <v>2.5</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="22">
         <f>B53-C53</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="15"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="17">
         <v>1</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="19">
         <v>0.5</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="22">
         <f>B55-C55</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="17">
         <v>4</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="19">
         <v>3</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="22">
         <f>B57-C57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="15"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="17">
         <v>5</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="19">
         <v>4</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="22">
         <f>B59-C59</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="15"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="25">
         <f>SUM(B39:B60)</f>
         <v>25</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="24">
         <f>SUM(C39:C60)</f>
-        <v>28</v>
-      </c>
-      <c r="D61" s="7">
+        <v>29</v>
+      </c>
+      <c r="D61" s="21">
         <f t="shared" ref="D61" si="12">B61-C61</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="7"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="17">
         <v>8</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="19">
+        <v>9</v>
+      </c>
+      <c r="D65" s="22">
+        <f>B65-C65</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="17">
+        <v>20</v>
+      </c>
+      <c r="C67" s="19">
+        <v>13</v>
+      </c>
+      <c r="D67" s="22">
+        <f>B67-C67</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="17">
+        <v>30</v>
+      </c>
+      <c r="C69" s="19">
+        <v>27</v>
+      </c>
+      <c r="D69" s="22">
+        <f>B69-C69</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="17">
+        <v>10</v>
+      </c>
+      <c r="C71" s="19">
+        <v>2</v>
+      </c>
+      <c r="D71" s="22">
+        <f>B71-C71</f>
         <v>8</v>
       </c>
-      <c r="D65" s="14">
-        <f>B65-C65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="17">
         <v>15</v>
       </c>
-      <c r="B67" s="10">
-        <v>20</v>
-      </c>
-      <c r="C67" s="12">
+      <c r="C73" s="19">
+        <v>5</v>
+      </c>
+      <c r="D73" s="22">
+        <f>B73-C73</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="14">
-        <f>B67-C67</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="15"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="10">
-        <v>30</v>
-      </c>
-      <c r="C69" s="12">
-        <v>24</v>
-      </c>
-      <c r="D69" s="14">
-        <f>B69-C69</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="10">
-        <v>10</v>
-      </c>
-      <c r="C71" s="12">
-        <v>1</v>
-      </c>
-      <c r="D71" s="14">
-        <f>B71-C71</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="10">
-        <v>15</v>
-      </c>
-      <c r="C73" s="12">
-        <v>4</v>
-      </c>
-      <c r="D73" s="14">
-        <f>B73-C73</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="24">
+      <c r="B75" s="25">
         <f>SUM(B65:B74)</f>
         <v>83</v>
       </c>
-      <c r="C75" s="25">
+      <c r="C75" s="24">
         <f>SUM(C65:C74)</f>
-        <v>48</v>
-      </c>
-      <c r="D75" s="7">
+        <v>56</v>
+      </c>
+      <c r="D75" s="21">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="7"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B79" s="25">
         <v>4</v>
       </c>
-      <c r="C79" s="25">
+      <c r="C79" s="24">
         <v>2</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="21">
         <f t="shared" ref="D79" si="14">B79-C79</f>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="24">
+      <c r="B81" s="25">
         <v>1</v>
       </c>
-      <c r="C81" s="25">
+      <c r="C81" s="24">
         <v>1</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="21">
         <f t="shared" ref="D81" si="15">B81-C81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="7"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B83" s="25">
         <v>2</v>
       </c>
-      <c r="C83" s="25">
+      <c r="C83" s="24">
         <f>SUM(F84:AR84)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="21">
         <f t="shared" ref="D83" si="16">B83-C83</f>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="7"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="24">
+      <c r="B85" s="25">
         <v>4</v>
       </c>
-      <c r="C85" s="25">
+      <c r="C85" s="24">
         <f>SUM(F86:AR86)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="21">
         <f t="shared" ref="D85" si="17">B85-C85</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="7"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="24">
+      <c r="B87" s="25">
         <f>SUM(B79:B86)</f>
         <v>11</v>
       </c>
-      <c r="C87" s="25">
+      <c r="C87" s="24">
         <f>SUM(C79:C86)</f>
         <v>3</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="21">
         <f t="shared" ref="D87" si="18">B87-C87</f>
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="7"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -2268,15 +2268,145 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>104.5</v>
+        <v>113.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>41.5</v>
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="A7:A8"/>
@@ -2301,136 +2431,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <conditionalFormatting sqref="D89">
     <cfRule type="cellIs" dxfId="58" priority="64" operator="greaterThan">

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C22580BF-A385-4B3F-B7C1-17E6736DC926}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D5F1DE6-D42D-482F-93FC-94E16EFB37A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -383,28 +383,7 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,19 +404,28 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,6 +433,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="C79" sqref="C79:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,24 +1366,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1400,863 +1400,863 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="7">
         <f t="shared" ref="D7:D11" si="0">B7-C7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="25">
         <v>3</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="7">
         <f t="shared" ref="D13" si="1">B13-C13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>1</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="7">
         <f t="shared" ref="D15" si="2">B15-C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="10">
         <v>2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="25">
         <v>2</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="7">
         <f t="shared" ref="D17" si="3">B17-C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="25">
         <v>2</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="7">
         <f t="shared" ref="D19" si="4">B19-C19</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="10">
         <v>1</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="7">
         <f t="shared" ref="D21" si="5">B21-C21</f>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="10">
         <f>SUM(B7:B22)</f>
         <v>17</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="25">
         <f>SUM(C7:C22)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="7">
         <f t="shared" ref="D23" si="6">B23-C23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="25">
         <v>2.5</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="7">
         <f t="shared" ref="D27" si="7">B27-C27</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>2</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="25">
         <v>1.5</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="7">
         <f t="shared" ref="D29" si="8">B29-C29</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>4</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="25">
         <v>5</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="7">
         <f t="shared" ref="D31" si="9">B31-C31</f>
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>2</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="25">
         <v>1.5</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="7">
         <f t="shared" ref="D33" si="10">B33-C33</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <f>SUM(B27:B34)</f>
         <v>10</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="25">
         <f>SUM(C27:C34)</f>
         <v>10.5</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="7">
         <f t="shared" ref="D35" si="11">B35-C35</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="24">
         <v>1</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="25">
         <v>1</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="7">
         <f>B39-C39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <v>1</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="25">
         <v>1</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="7">
         <f>B41-C41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="24">
         <v>3</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="25">
         <v>4</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="7">
         <f>B43-C43</f>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="24">
         <v>4</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="25">
         <v>4</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="7">
         <f>B45-C45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="10">
         <v>1</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="12">
         <v>5</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="14">
         <f>B47-C47</f>
         <v>-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="10">
         <v>2</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="12">
         <v>3</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="14">
         <f>B49-C49</f>
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="10">
         <v>1</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="12">
         <v>1</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="14">
         <f>B51-C51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="23"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="10">
         <v>2</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="12">
         <v>2.5</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="14">
         <f>B53-C53</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="10">
         <v>1</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="12">
         <v>0.5</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="14">
         <f>B55-C55</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="10">
         <v>4</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="12">
         <v>3</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="14">
         <f>B57-C57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="10">
         <v>5</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="12">
         <v>4</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="14">
         <f>B59-C59</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="24">
         <f>SUM(B39:B60)</f>
         <v>25</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="25">
         <f>SUM(C39:C60)</f>
         <v>29</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="7">
         <f t="shared" ref="D61" si="12">B61-C61</f>
         <v>-4</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="21"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="10">
         <v>8</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="12">
         <v>9</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="14">
         <f>B65-C65</f>
         <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="10">
         <v>20</v>
       </c>
-      <c r="C67" s="19">
-        <v>13</v>
-      </c>
-      <c r="D67" s="22">
+      <c r="C67" s="12">
+        <v>16</v>
+      </c>
+      <c r="D67" s="14">
         <f>B67-C67</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="10">
+        <v>30</v>
+      </c>
+      <c r="C69" s="12">
+        <v>29</v>
+      </c>
+      <c r="D69" s="14">
+        <f>B69-C69</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="10">
+        <v>10</v>
+      </c>
+      <c r="C71" s="12">
+        <v>3</v>
+      </c>
+      <c r="D71" s="14">
+        <f>B71-C71</f>
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="23"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="17">
-        <v>30</v>
-      </c>
-      <c r="C69" s="19">
-        <v>27</v>
-      </c>
-      <c r="D69" s="22">
-        <f>B69-C69</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="17">
-        <v>10</v>
-      </c>
-      <c r="C71" s="19">
-        <v>2</v>
-      </c>
-      <c r="D71" s="22">
-        <f>B71-C71</f>
-        <v>8</v>
-      </c>
-    </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="10">
         <v>15</v>
       </c>
-      <c r="C73" s="19">
-        <v>5</v>
-      </c>
-      <c r="D73" s="22">
+      <c r="C73" s="12">
+        <v>6</v>
+      </c>
+      <c r="D73" s="14">
         <f>B73-C73</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="24">
         <f>SUM(B65:B74)</f>
         <v>83</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="25">
         <f>SUM(C65:C74)</f>
-        <v>56</v>
-      </c>
-      <c r="D75" s="21">
+        <v>63</v>
+      </c>
+      <c r="D75" s="7">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="27"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="21"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="25">
+      <c r="B79" s="24">
         <v>4</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="25">
         <v>2</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="7">
         <f t="shared" ref="D79" si="14">B79-C79</f>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="21"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="25">
+      <c r="B81" s="24">
         <v>1</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="25">
         <v>1</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="7">
         <f t="shared" ref="D81" si="15">B81-C81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="21"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="25">
+      <c r="B83" s="24">
         <v>2</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="25">
         <f>SUM(F84:AR84)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="7">
         <f t="shared" ref="D83" si="16">B83-C83</f>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="21"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="25">
+      <c r="B85" s="24">
         <v>4</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="25">
         <f>SUM(F86:AR86)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="7">
         <f t="shared" ref="D85" si="17">B85-C85</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="21"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="24">
         <f>SUM(B79:B86)</f>
         <v>11</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="25">
         <f>SUM(C79:C86)</f>
         <v>3</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="7">
         <f t="shared" ref="D87" si="18">B87-C87</f>
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="21"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -2268,15 +2268,145 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>113.5</v>
+        <v>120.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>32.5</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
@@ -2301,136 +2431,6 @@
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <conditionalFormatting sqref="D89">
     <cfRule type="cellIs" dxfId="58" priority="64" operator="greaterThan">

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D5F1DE6-D42D-482F-93FC-94E16EFB37A7}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21C478F-63FA-430A-B7B2-47BE8C1A8966}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79:C80"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2078,11 +2078,11 @@
         <v>10</v>
       </c>
       <c r="C71" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="14">
         <f>B71-C71</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2099,11 +2099,11 @@
         <v>15</v>
       </c>
       <c r="C73" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D73" s="14">
         <f>B73-C73</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C75" s="25">
         <f>SUM(C65:C74)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>120.5</v>
+        <v>125.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>25.5</v>
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitplanung Semesterarbeit.xlsx
+++ b/Zeitplanung Semesterarbeit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/michael_neuhaus_edu_teko_ch/Documents/SoftwareEngineering/Semesterarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21C478F-63FA-430A-B7B2-47BE8C1A8966}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{7D490849-9415-4215-ACFA-5F976F46D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B98EF9A6-57F9-4C43-88AB-ECCEF56889D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47BFA230-58F1-4F90-BF73-A79F16582490}"/>
   </bookViews>
@@ -383,7 +383,28 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,28 +425,19 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,18 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DAE504-AFBB-44E2-A19D-DE248B1C2FE0}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1366,24 +1366,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1400,863 +1400,862 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="19">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="21">
         <f t="shared" ref="D7:D11" si="0">B7-C7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="17">
         <v>4</v>
       </c>
-      <c r="C13" s="25">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="24">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21">
         <f t="shared" ref="D13" si="1">B13-C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="C15" s="24">
         <v>1</v>
       </c>
-      <c r="C15" s="25">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="D15" s="21">
         <f t="shared" ref="D15" si="2">B15-C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="21">
         <f t="shared" ref="D17" si="3">B17-C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="21">
         <f t="shared" ref="D19" si="4">B19-C19</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="17">
         <v>1</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="21">
         <f t="shared" ref="D21" si="5">B21-C21</f>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="17">
         <f>SUM(B7:B22)</f>
         <v>17</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <f>SUM(C7:C22)</f>
-        <v>15</v>
-      </c>
-      <c r="D23" s="7">
+        <v>16</v>
+      </c>
+      <c r="D23" s="21">
         <f t="shared" ref="D23" si="6">B23-C23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="24">
-        <v>2</v>
-      </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>2.5</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="21">
         <f t="shared" ref="D27" si="7">B27-C27</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="25">
         <v>2</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>1.5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="21">
         <f t="shared" ref="D29" si="8">B29-C29</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="25">
         <v>4</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="21">
         <f t="shared" ref="D31" si="9">B31-C31</f>
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="25">
         <v>2</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>1.5</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="21">
         <f t="shared" ref="D33" si="10">B33-C33</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="25">
         <f>SUM(B27:B34)</f>
         <v>10</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="24">
         <f>SUM(C27:C34)</f>
         <v>10.5</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="21">
         <f t="shared" ref="D35" si="11">B35-C35</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="25">
         <v>1</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="24">
         <v>1</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="21">
         <f>B39-C39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="25">
         <v>1</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="24">
         <v>1</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="21">
         <f>B41-C41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="25">
         <v>3</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="24">
         <v>4</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="21">
         <f>B43-C43</f>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="25">
         <v>4</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <v>4</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="21">
         <f>B45-C45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="17">
         <v>1</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="19">
         <v>5</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="22">
         <f>B47-C47</f>
         <v>-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="17">
         <v>2</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="19">
         <v>3</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="22">
         <f>B49-C49</f>
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="17">
         <v>1</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="19">
         <v>1</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="22">
         <f>B51-C51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="15"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="17">
         <v>2</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="19">
         <v>2.5</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="22">
         <f>B53-C53</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="15"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="17">
         <v>1</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="19">
         <v>0.5</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="22">
         <f>B55-C55</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="17">
         <v>4</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="19">
         <v>3</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="22">
         <f>B57-C57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="15"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="17">
         <v>5</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="19">
         <v>4</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="22">
         <f>B59-C59</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="15"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="25">
         <f>SUM(B39:B60)</f>
         <v>25</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="24">
         <f>SUM(C39:C60)</f>
         <v>29</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="21">
         <f t="shared" ref="D61" si="12">B61-C61</f>
         <v>-4</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="7"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="17">
         <v>8</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="19">
         <v>9</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="22">
         <f>B65-C65</f>
         <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="15"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="17">
         <v>20</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="19">
+        <v>18</v>
+      </c>
+      <c r="D67" s="22">
+        <f>B67-C67</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="14">
-        <f>B67-C67</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="15"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="10">
+      <c r="B69" s="17">
         <v>30</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="19">
         <v>29</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="22">
         <f>B69-C69</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="15"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="17">
         <v>10</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="19">
+        <v>6</v>
+      </c>
+      <c r="D71" s="22">
+        <f>B71-C71</f>
         <v>4</v>
       </c>
-      <c r="D71" s="14">
-        <f>B71-C71</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="15"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="17">
         <v>15</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="19">
         <v>10</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="22">
         <f>B73-C73</f>
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="15"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="24">
+      <c r="B75" s="25">
         <f>SUM(B65:B74)</f>
         <v>83</v>
       </c>
-      <c r="C75" s="25">
+      <c r="C75" s="24">
         <f>SUM(C65:C74)</f>
-        <v>68</v>
-      </c>
-      <c r="D75" s="7">
+        <v>72</v>
+      </c>
+      <c r="D75" s="21">
         <f t="shared" ref="D75" si="13">B75-C75</f>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="7"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B79" s="25">
         <v>4</v>
       </c>
-      <c r="C79" s="25">
+      <c r="C79" s="24">
         <v>2</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="21">
         <f t="shared" ref="D79" si="14">B79-C79</f>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="24">
+      <c r="B81" s="25">
         <v>1</v>
       </c>
-      <c r="C81" s="25">
+      <c r="C81" s="24">
         <v>1</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="21">
         <f t="shared" ref="D81" si="15">B81-C81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="7"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="24">
+      <c r="B83" s="25">
         <v>2</v>
       </c>
-      <c r="C83" s="25">
+      <c r="C83" s="24">
         <f>SUM(F84:AR84)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="21">
         <f t="shared" ref="D83" si="16">B83-C83</f>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="7"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="24">
+      <c r="B85" s="25">
         <v>4</v>
       </c>
-      <c r="C85" s="25">
-        <f>SUM(F86:AR86)</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="7">
+      <c r="C85" s="24">
+        <v>3</v>
+      </c>
+      <c r="D85" s="21">
         <f t="shared" ref="D85" si="17">B85-C85</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="7"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="24">
+      <c r="B87" s="25">
         <f>SUM(B79:B86)</f>
         <v>11</v>
       </c>
-      <c r="C87" s="25">
+      <c r="C87" s="24">
         <f>SUM(C79:C86)</f>
-        <v>3</v>
-      </c>
-      <c r="D87" s="7">
+        <v>6</v>
+      </c>
+      <c r="D87" s="21">
         <f t="shared" ref="D87" si="18">B87-C87</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="7"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -2268,15 +2267,145 @@
       </c>
       <c r="C89" s="5">
         <f>SUM(C23,C35,C61,C75,C87)</f>
-        <v>125.5</v>
+        <v>133.5</v>
       </c>
       <c r="D89" s="6">
         <f>B89-C89</f>
-        <v>20.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="A7:A8"/>
@@ -2301,136 +2430,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <conditionalFormatting sqref="D89">
     <cfRule type="cellIs" dxfId="58" priority="64" operator="greaterThan">
